--- a/Use_Cases.xlsx
+++ b/Use_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Dropbox\My PC (DESKTOP-V129G14)\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C4162F0-B4B3-479A-BE22-AEC89AC7345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDBD427-93CD-498A-B624-350A7E3EEA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Adicionar Certame" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Consultar Mensagens" sheetId="10" r:id="rId8"/>
     <sheet name="Criar Conta Administrador" sheetId="11" r:id="rId9"/>
     <sheet name="Criar Conta Utilizador" sheetId="12" r:id="rId10"/>
-    <sheet name="Criar Conta Vendedor" sheetId="13" r:id="rId11"/>
+    <sheet name="Upgrade para Conta Vendedor" sheetId="13" r:id="rId11"/>
     <sheet name="Editar Conta Administrador" sheetId="14" r:id="rId12"/>
     <sheet name="Editar Conta Utilizador" sheetId="15" r:id="rId13"/>
     <sheet name="Editar Dados Vendedor" sheetId="16" r:id="rId14"/>
@@ -425,9 +425,6 @@
     <t>O Visitante consultou as mensagens recebidas</t>
   </si>
   <si>
-    <t>O Visitante estar autenticado como Utilizador ou Vendedor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Visitante </t>
   </si>
   <si>
@@ -560,9 +557,6 @@
     <t>O visitante está conectado como utilizador.</t>
   </si>
   <si>
-    <t>Criar conta de Vendedor.</t>
-  </si>
-  <si>
     <t>11.1 Regressa a 17</t>
   </si>
   <si>
@@ -1113,6 +1107,12 @@
   </si>
   <si>
     <t>Visitar um Stand e os seus Produtos</t>
+  </si>
+  <si>
+    <t>O Visitante estar autenticado como Utilizador, Vendedor ou Administrador</t>
+  </si>
+  <si>
+    <t>Upgrade para conta de Vendedor.</t>
   </si>
 </sst>
 </file>
@@ -1379,6 +1379,45 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,82 +1445,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2650,7 +2650,7 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2663,51 +2663,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="34"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="2"/>
       <c r="G5" s="3"/>
     </row>
@@ -2727,7 +2727,7 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2743,7 +2743,7 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>8</v>
@@ -2757,7 +2757,7 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>17</v>
@@ -2839,67 +2839,67 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -2909,121 +2909,121 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>157</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="66.599999999999994" customHeight="1">
-      <c r="A17" s="29"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="28" t="s">
-        <v>151</v>
+      <c r="C17" s="19" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="42.6" customHeight="1">
       <c r="A18" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="11"/>
     </row>
@@ -3031,13 +3031,13 @@
       <c r="A19" s="43"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.6" customHeight="1">
       <c r="A20" s="43"/>
       <c r="B20" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="11"/>
     </row>
@@ -3045,7 +3045,7 @@
       <c r="A21" s="43"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="48.6" customHeight="1">
@@ -3058,56 +3058,56 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>150</v>
+      <c r="A23" s="41" t="s">
+        <v>149</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="46.8" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="61.8" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="46.2" customHeight="1">
-      <c r="A26" s="41"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A28" s="41"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="51.6" customHeight="1">
-      <c r="A29" s="39"/>
+      <c r="A29" s="42"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3138,67 +3138,67 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -3208,77 +3208,77 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>163</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.6" customHeight="1">
@@ -3321,62 +3321,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -3386,174 +3386,174 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>191</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="28" t="s">
-        <v>189</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.8" customHeight="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="47.4" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="C24" s="28" t="s">
-        <v>176</v>
+      <c r="A24" s="40"/>
+      <c r="C24" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A25" s="47" t="s">
-        <v>175</v>
+      <c r="A25" s="25" t="s">
+        <v>173</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="39" customHeight="1">
-      <c r="A26" s="47" t="s">
-        <v>173</v>
+      <c r="A26" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A27" s="47" t="s">
-        <v>171</v>
+      <c r="A27" s="25" t="s">
+        <v>169</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3587,62 +3587,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -3652,203 +3652,203 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>223</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="28" t="s">
-        <v>189</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="36.6" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A18" s="30"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="50.4" customHeight="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.8" customHeight="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="39"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A26" s="30"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="49.2" customHeight="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3" ht="41.4" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="47.4" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="C32" s="28" t="s">
-        <v>215</v>
+      <c r="A32" s="40"/>
+      <c r="C32" s="19" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="52.2" customHeight="1">
@@ -3857,105 +3857,105 @@
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A34" s="40" t="s">
-        <v>213</v>
+      <c r="A34" s="41" t="s">
+        <v>211</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3" ht="46.8" customHeight="1">
-      <c r="A35" s="39"/>
+      <c r="A35" s="42"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="56.4" customHeight="1">
-      <c r="A36" s="40" t="s">
-        <v>210</v>
+      <c r="A36" s="41" t="s">
+        <v>208</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C36" s="11"/>
     </row>
     <row r="37" spans="1:3" ht="46.2" customHeight="1">
-      <c r="A37" s="41"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" customHeight="1">
-      <c r="A38" s="41"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="45.6" customHeight="1">
-      <c r="A39" s="41"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="40.799999999999997" customHeight="1">
-      <c r="A40" s="39"/>
+      <c r="A40" s="42"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A41" s="47" t="s">
-        <v>204</v>
+      <c r="A41" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39" customHeight="1">
-      <c r="A42" s="47" t="s">
-        <v>203</v>
+      <c r="A42" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A43" s="47" t="s">
-        <v>202</v>
+      <c r="A43" s="25" t="s">
+        <v>200</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A44" s="47" t="s">
-        <v>201</v>
+      <c r="A44" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="39" customHeight="1">
-      <c r="A45" s="47" t="s">
-        <v>199</v>
+      <c r="A45" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3991,62 +3991,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -4056,77 +4056,77 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>234</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>232</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.6" customHeight="1">
@@ -4135,16 +4135,16 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A14" s="47" t="s">
-        <v>229</v>
+      <c r="A14" s="25" t="s">
+        <v>227</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4178,61 +4178,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="38.88671875" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -4242,142 +4242,142 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>255</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="42.6" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="C16" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="A16" s="27"/>
+      <c r="C16" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="49.2" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -4389,48 +4389,48 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.8" customHeight="1">
-      <c r="A18" s="47" t="s">
-        <v>250</v>
+      <c r="A18" s="25" t="s">
+        <v>248</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A19" s="47" t="s">
-        <v>248</v>
+      <c r="A19" s="25" t="s">
+        <v>246</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="37.799999999999997" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>246</v>
+      <c r="A20" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A21" s="47" t="s">
-        <v>244</v>
+      <c r="A21" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A22" s="47" t="s">
-        <v>242</v>
+      <c r="A22" s="25" t="s">
+        <v>240</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4464,62 +4464,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -4529,84 +4529,84 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>265</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="51" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="48.6" customHeight="1">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="40.200000000000003" customHeight="1">
       <c r="A15" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11"/>
     </row>
@@ -4631,13 +4631,13 @@
       <c r="A16" s="43"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="40.200000000000003" customHeight="1">
       <c r="A17" s="43"/>
       <c r="B17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -4645,7 +4645,7 @@
       <c r="A18" s="43"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4680,61 +4680,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="38.88671875" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -4744,157 +4744,157 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+        <v>276</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="24"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="G16" s="24"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="G17" s="24"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
+        <v>271</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="49.2" customHeight="1">
       <c r="A19" s="12" t="s">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4936,61 +4936,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="33" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5000,105 +5000,105 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>284</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="56.4" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+        <v>282</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="G13" s="24"/>
+      <c r="C13" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5131,62 +5131,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5196,98 +5196,98 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>296</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>294</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+        <v>292</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="55.2" customHeight="1">
-      <c r="A12" s="40" t="s">
-        <v>293</v>
+      <c r="A12" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="46.8" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5322,61 +5322,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="34.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5386,83 +5386,83 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
       <c r="A12" s="12" t="s">
@@ -5472,13 +5472,13 @@
       <c r="C12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5511,61 +5511,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="33" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5575,83 +5575,83 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>302</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="56.4" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="C11" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5684,61 +5684,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="38.88671875" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5748,104 +5748,104 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>318</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="37"/>
-      <c r="G9" s="24"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="G10" s="24"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="G11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="G12" s="24"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="24"/>
+        <v>312</v>
+      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
+        <v>310</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="49.2" customHeight="1">
       <c r="A16" s="12" t="s">
@@ -5853,15 +5853,15 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.8" customHeight="1">
       <c r="A17" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C17" s="11"/>
     </row>
@@ -5869,7 +5869,7 @@
       <c r="A18" s="43"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5904,62 +5904,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.88671875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -5969,58 +5969,58 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
       <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>325</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
       <c r="A8" s="48"/>
-      <c r="B8" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="B8" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
       <c r="A9" s="48"/>
-      <c r="B9" s="37"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>323</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6053,62 +6053,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -6118,197 +6118,197 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>349</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="52.8" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="54.6" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="49.8" customHeight="1">
-      <c r="A13" s="30"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C14" s="37"/>
+        <v>348</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:10" ht="41.4" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="55.2" customHeight="1">
-      <c r="A16" s="40" t="s">
-        <v>348</v>
+      <c r="A16" s="41" t="s">
+        <v>346</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="46.8" customHeight="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="56.4" customHeight="1">
-      <c r="A18" s="40" t="s">
-        <v>345</v>
+      <c r="A18" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="49.8" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A20" s="40" t="s">
-        <v>342</v>
+      <c r="A20" s="41" t="s">
+        <v>340</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3" ht="40.200000000000003" customHeight="1">
-      <c r="A21" s="41"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="40.200000000000003" customHeight="1">
-      <c r="A22" s="39"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="40.200000000000003" customHeight="1">
-      <c r="A23" s="40" t="s">
-        <v>338</v>
+      <c r="A23" s="41" t="s">
+        <v>336</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="37.799999999999997" customHeight="1">
-      <c r="A24" s="41"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="37.799999999999997" customHeight="1">
-      <c r="A25" s="39"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>334</v>
+      <c r="A26" s="41" t="s">
+        <v>332</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="39.6" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="43.8" customHeight="1">
-      <c r="A28" s="39"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C28" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A7:A15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A7:A15"/>
     <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
@@ -6327,67 +6327,67 @@
   </sheetPr>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -6397,77 +6397,77 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="66.599999999999994" customHeight="1">
-      <c r="A12" s="29"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6511,61 +6511,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="33" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:13" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:13" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:13" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -6575,142 +6575,142 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="G14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A15" s="14"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="15"/>
     </row>
     <row r="16" spans="1:13" ht="42.6" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="27"/>
+      <c r="C16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:3" ht="49.2" customHeight="1">
       <c r="A17" s="12" t="s">
@@ -6746,67 +6746,67 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="30.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -6816,120 +6816,120 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="24"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="49.95" customHeight="1">
       <c r="A15" s="12" t="s">
@@ -6939,13 +6939,13 @@
       <c r="C15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="7"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6972,68 +6972,68 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -7043,140 +7043,140 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="24"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="24"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="39"/>
       <c r="C15" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" ht="52.8" customHeight="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="39"/>
       <c r="C17" s="11" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="55.2" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -7185,7 +7185,7 @@
       <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3" ht="46.8" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11" t="s">
         <v>69</v>
@@ -7217,67 +7217,67 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="40.77734375" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -7287,157 +7287,157 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="C9" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="24"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="24"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="37"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="38" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="G14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="G16" s="24"/>
+      <c r="C16" s="19"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="49.95" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="7"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="24"/>
+      <c r="M18" s="15"/>
     </row>
     <row r="19" spans="1:13" ht="49.2" customHeight="1">
       <c r="A19" s="45" t="s">
@@ -7449,7 +7449,7 @@
       <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="49.2" customHeight="1">
-      <c r="A20" s="44"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11" t="s">
         <v>101</v>
@@ -7459,55 +7459,55 @@
       <c r="A21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="24" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="46.8" customHeight="1">
       <c r="A22" s="43"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="49.8" customHeight="1">
       <c r="A23" s="43"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="24" t="s">
         <v>97</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="46.2" customHeight="1">
       <c r="A24" s="43"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="38.4" customHeight="1">
       <c r="A25" s="43"/>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="24" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="41.4" customHeight="1">
       <c r="A26" s="43"/>
-      <c r="B26" s="42"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="41.4" customHeight="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="11" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="41.4" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -7516,28 +7516,28 @@
       <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="37.799999999999997" customHeight="1">
-      <c r="A29" s="41"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="39.6" customHeight="1">
-      <c r="A30" s="41"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:13" ht="37.799999999999997" customHeight="1">
-      <c r="A31" s="41"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="46.2" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
         <v>87</v>
@@ -7572,66 +7572,66 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="23" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="38.88671875" style="14" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="44.4" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -7641,56 +7641,56 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="47" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7717,67 +7717,67 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="50.77734375" style="23" customWidth="1"/>
-    <col min="4" max="10" width="16.33203125" style="23" customWidth="1"/>
-    <col min="11" max="256" width="16.33203125" style="22" customWidth="1"/>
-    <col min="257" max="16384" width="16.33203125" style="22"/>
+    <col min="1" max="1" width="42.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="50.77734375" style="14" customWidth="1"/>
+    <col min="4" max="10" width="16.33203125" style="14" customWidth="1"/>
+    <col min="11" max="256" width="16.33203125" style="13" customWidth="1"/>
+    <col min="257" max="16384" width="16.33203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="25.05" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="26"/>
+      <c r="B2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="25.05" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:10" ht="25.05" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="25.05" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="26"/>
-      <c r="G5" s="24"/>
+      <c r="B5" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="17"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="25.05" customHeight="1">
       <c r="A6" s="9"/>
@@ -7787,93 +7787,93 @@
       <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="D6" s="17"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="24"/>
+        <v>137</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="24"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="49.95" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="24"/>
+        <v>135</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="52.2" customHeight="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="66.599999999999994" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="28" t="s">
-        <v>132</v>
+      <c r="C13" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="42.6" customHeight="1">
       <c r="A14" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -7881,13 +7881,13 @@
       <c r="A15" s="43"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="45.6" customHeight="1">
       <c r="A16" s="43"/>
       <c r="B16" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="11"/>
     </row>
@@ -7895,7 +7895,7 @@
       <c r="A17" s="43"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="48.6" customHeight="1">
